--- a/testing_campaign.xlsx
+++ b/testing_campaign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/534669_umons_ac_be/Documents/PhD/MicroGT/ControlEGRTemperature/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTT\Desktop\TestTHIELENS\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{E1E1B026-C2DA-4C05-B2BD-09DB613F2371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3C1D7AC-8AA1-4304-AD5C-02A5279C8DAE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0C1250-00EE-491B-9FA6-3C45C56629F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{4ADD28AD-5A96-4584-AD37-3ECAA08FB0AA}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{4ADD28AD-5A96-4584-AD37-3ECAA08FB0AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,22 +427,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF365F6-C313-429F-BAAF-11353B2C6298}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="H9:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.3125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.62890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>90</v>
       </c>
@@ -482,7 +482,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>90</v>
       </c>
@@ -502,7 +502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>90</v>
       </c>
@@ -522,7 +522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>90</v>
       </c>
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>90</v>
       </c>
@@ -562,7 +562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>90</v>
       </c>
@@ -582,7 +582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>90</v>
       </c>
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>90</v>
       </c>
@@ -616,13 +616,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="F9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>90</v>
       </c>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90</v>
       </c>
@@ -656,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="F11">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>90</v>
       </c>
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>90</v>
       </c>
@@ -696,55 +696,55 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="F13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B14">
         <v>-20</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B15">
         <v>-20</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="F15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B16">
         <v>-20</v>
@@ -753,16 +753,16 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="F16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>80</v>
       </c>
@@ -770,19 +770,19 @@
         <v>-20</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>80</v>
       </c>
@@ -790,19 +790,19 @@
         <v>-20</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80</v>
       </c>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>80</v>
       </c>
@@ -836,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>80</v>
       </c>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>80</v>
       </c>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.55000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>80</v>
       </c>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>80</v>
       </c>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="F24">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>80</v>
       </c>
@@ -936,55 +936,55 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F25">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>-20</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="F26">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>-20</v>
       </c>
       <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>0.5</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
       <c r="F27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B28">
         <v>-20</v>
@@ -993,18 +993,18 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="F28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B29">
         <v>-20</v>
@@ -1016,15 +1016,15 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F29">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B30">
         <v>-20</v>
@@ -1036,15 +1036,15 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.2</v>
+        <v>0.625</v>
       </c>
       <c r="F30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B31">
         <v>-20</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="F31">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>70</v>
       </c>
@@ -1070,19 +1070,19 @@
         <v>-20</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>70</v>
       </c>
@@ -1090,19 +1090,19 @@
         <v>-20</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>70</v>
       </c>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>70</v>
       </c>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>70</v>
       </c>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="F36">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>70</v>
       </c>
@@ -1176,75 +1176,75 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="F37">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B38">
         <v>-20</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F38">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B39">
         <v>-20</v>
       </c>
       <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.45</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>70</v>
+      </c>
+      <c r="B40">
+        <v>-20</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
         <v>0.5</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
-        <v>60</v>
-      </c>
-      <c r="B40">
-        <v>-20</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
       <c r="F40">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B41">
         <v>-20</v>
@@ -1256,15 +1256,15 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="F41">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B42">
         <v>-20</v>
@@ -1276,275 +1276,275 @@
         <v>0</v>
       </c>
       <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>70</v>
+      </c>
+      <c r="B43">
+        <v>-20</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>-20</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.6</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>-20</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.625</v>
+      </c>
+      <c r="F45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>70</v>
+      </c>
+      <c r="B46">
+        <v>-20</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.65</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <v>-20</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>-20</v>
+      </c>
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>60</v>
+      </c>
+      <c r="B49">
+        <v>-20</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>60</v>
+      </c>
+      <c r="B50">
+        <v>-20</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>-20</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
         <v>0.2</v>
       </c>
-      <c r="F42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
-        <v>60</v>
-      </c>
-      <c r="B43">
-        <v>-20</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
+      <c r="F51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>-20</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
         <v>0.3</v>
       </c>
-      <c r="F43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
-        <v>60</v>
-      </c>
-      <c r="B44">
-        <v>-20</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
+      <c r="F52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>60</v>
+      </c>
+      <c r="B53">
+        <v>-20</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
         <v>0.4</v>
       </c>
-      <c r="F44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
-        <v>60</v>
-      </c>
-      <c r="B45">
-        <v>-20</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
+      <c r="F53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>-20</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0.45</v>
+      </c>
+      <c r="F54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>-20</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
         <v>0.5</v>
       </c>
-      <c r="F45">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
-        <v>60</v>
-      </c>
-      <c r="B46">
-        <v>-20</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
-        <v>60</v>
-      </c>
-      <c r="B47">
-        <v>-20</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0.6</v>
-      </c>
-      <c r="F47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
-        <v>60</v>
-      </c>
-      <c r="B48">
-        <v>-20</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0.65</v>
-      </c>
-      <c r="F48">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
-        <v>60</v>
-      </c>
-      <c r="B49">
-        <v>-20</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0.7</v>
-      </c>
-      <c r="F49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>-20</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>-20</v>
-      </c>
-      <c r="C51">
-        <v>0.5</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>-20</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
-        <v>50</v>
-      </c>
-      <c r="B53">
-        <v>-20</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
-        <v>50</v>
-      </c>
-      <c r="B54">
-        <v>-20</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0.2</v>
-      </c>
-      <c r="F54">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55">
-        <v>50</v>
-      </c>
-      <c r="B55">
-        <v>-20</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0.3</v>
-      </c>
       <c r="F55">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>-20</v>
@@ -1556,15 +1556,15 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0.4</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="F56">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>-20</v>
@@ -1582,9 +1582,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>-20</v>
@@ -1596,15 +1596,15 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0.55000000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="F58">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>-20</v>
@@ -1622,69 +1622,69 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>-20</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0.625</v>
+      </c>
+      <c r="F60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>-20</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0.65</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>50</v>
       </c>
-      <c r="B60">
-        <v>-20</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0.65</v>
-      </c>
-      <c r="F60">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
+      <c r="B62">
+        <v>-20</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>50</v>
-      </c>
-      <c r="B61">
-        <v>-20</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0.7</v>
-      </c>
-      <c r="F61">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
-        <v>40</v>
-      </c>
-      <c r="B62">
-        <v>-20</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63">
-        <v>40</v>
       </c>
       <c r="B63">
         <v>-20</v>
@@ -1702,9 +1702,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B64">
         <v>-20</v>
@@ -1722,9 +1722,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B65">
         <v>-20</v>
@@ -1742,9 +1742,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B66">
         <v>-20</v>
@@ -1762,9 +1762,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B67">
         <v>-20</v>
@@ -1782,9 +1782,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B68">
         <v>-20</v>
@@ -1802,604 +1802,1084 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
+        <v>50</v>
+      </c>
+      <c r="B69">
+        <v>-20</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0.45</v>
+      </c>
+      <c r="F69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>50</v>
+      </c>
+      <c r="B70">
+        <v>-20</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0.5</v>
+      </c>
+      <c r="F70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>50</v>
+      </c>
+      <c r="B71">
+        <v>-20</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>50</v>
+      </c>
+      <c r="B72">
+        <v>-20</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0.5</v>
+      </c>
+      <c r="F72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>50</v>
+      </c>
+      <c r="B73">
+        <v>-20</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>50</v>
+      </c>
+      <c r="B74">
+        <v>-20</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0.6</v>
+      </c>
+      <c r="F74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>50</v>
+      </c>
+      <c r="B75">
+        <v>-20</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0.625</v>
+      </c>
+      <c r="F75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>50</v>
+      </c>
+      <c r="B76">
+        <v>-20</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0.65</v>
+      </c>
+      <c r="F76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>40</v>
       </c>
-      <c r="B69">
-        <v>-20</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
+      <c r="B77">
+        <v>-20</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>40</v>
+      </c>
+      <c r="B78">
+        <v>-20</v>
+      </c>
+      <c r="C78">
         <v>0.5</v>
       </c>
-      <c r="F69">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70">
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>40</v>
       </c>
-      <c r="B70">
-        <v>-20</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F70">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71">
+      <c r="B79">
+        <v>-20</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>40</v>
       </c>
-      <c r="B71">
-        <v>-20</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
+      <c r="B80">
+        <v>-20</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>40</v>
+      </c>
+      <c r="B81">
+        <v>-20</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0.2</v>
+      </c>
+      <c r="F81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>40</v>
+      </c>
+      <c r="B82">
+        <v>-20</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0.3</v>
+      </c>
+      <c r="F82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>40</v>
+      </c>
+      <c r="B83">
+        <v>-20</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0.4</v>
+      </c>
+      <c r="F83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>40</v>
+      </c>
+      <c r="B84">
+        <v>-20</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0.45</v>
+      </c>
+      <c r="F84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>40</v>
+      </c>
+      <c r="B85">
+        <v>-20</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0.5</v>
+      </c>
+      <c r="F85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>40</v>
+      </c>
+      <c r="B86">
+        <v>-20</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>40</v>
+      </c>
+      <c r="B87">
+        <v>-20</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0.5</v>
+      </c>
+      <c r="F87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>40</v>
+      </c>
+      <c r="B88">
+        <v>-20</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>40</v>
+      </c>
+      <c r="B89">
+        <v>-20</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
         <v>0.6</v>
       </c>
-      <c r="F71">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72">
+      <c r="F89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>40</v>
       </c>
-      <c r="B72">
-        <v>-20</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
+      <c r="B90">
+        <v>-20</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0.625</v>
+      </c>
+      <c r="F90">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>40</v>
+      </c>
+      <c r="B91">
+        <v>-20</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
         <v>0.65</v>
       </c>
-      <c r="F72">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73">
-        <v>40</v>
-      </c>
-      <c r="B73">
-        <v>-20</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0.7</v>
-      </c>
-      <c r="F73">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74">
+      <c r="F91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>30</v>
       </c>
-      <c r="B74">
-        <v>-20</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75">
+      <c r="B92">
+        <v>-20</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>30</v>
       </c>
-      <c r="B75">
-        <v>-20</v>
-      </c>
-      <c r="C75">
+      <c r="B93">
+        <v>-20</v>
+      </c>
+      <c r="C93">
         <v>0.5</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76">
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>30</v>
       </c>
-      <c r="B76">
-        <v>-20</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77">
+      <c r="B94">
+        <v>-20</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>30</v>
       </c>
-      <c r="B77">
-        <v>-20</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78">
+      <c r="B95">
+        <v>-20</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>30</v>
       </c>
-      <c r="B78">
-        <v>-20</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
+      <c r="B96">
+        <v>-20</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
         <v>0.2</v>
       </c>
-      <c r="F78">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79">
+      <c r="F96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>30</v>
       </c>
-      <c r="B79">
-        <v>-20</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
+      <c r="B97">
+        <v>-20</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
         <v>0.3</v>
       </c>
-      <c r="F79">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80">
+      <c r="F97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>30</v>
       </c>
-      <c r="B80">
-        <v>-20</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
+      <c r="B98">
+        <v>-20</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
         <v>0.4</v>
       </c>
-      <c r="F80">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81">
+      <c r="F98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>30</v>
       </c>
-      <c r="B81">
-        <v>-20</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
+      <c r="B99">
+        <v>-20</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0.45</v>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>30</v>
+      </c>
+      <c r="B100">
+        <v>-20</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
         <v>0.5</v>
       </c>
-      <c r="F81">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82">
+      <c r="F100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>30</v>
       </c>
-      <c r="B82">
-        <v>-20</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F82">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83">
+      <c r="B101">
+        <v>-20</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>30</v>
       </c>
-      <c r="B83">
-        <v>-20</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
+      <c r="B102">
+        <v>-20</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0.5</v>
+      </c>
+      <c r="F102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>30</v>
+      </c>
+      <c r="B103">
+        <v>-20</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>30</v>
+      </c>
+      <c r="B104">
+        <v>-20</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
         <v>0.6</v>
       </c>
-      <c r="F83">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84">
+      <c r="F104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>30</v>
       </c>
-      <c r="B84">
-        <v>-20</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
+      <c r="B105">
+        <v>-20</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0.625</v>
+      </c>
+      <c r="F105">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>30</v>
+      </c>
+      <c r="B106">
+        <v>-20</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
         <v>0.65</v>
       </c>
-      <c r="F84">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85">
-        <v>30</v>
-      </c>
-      <c r="B85">
-        <v>-20</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0.7</v>
-      </c>
-      <c r="F85">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86">
-        <v>20</v>
-      </c>
-      <c r="B86">
-        <v>-20</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87">
-        <v>20</v>
-      </c>
-      <c r="B87">
-        <v>-20</v>
-      </c>
-      <c r="C87">
+      <c r="F106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>20</v>
+      </c>
+      <c r="B107">
+        <v>-20</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>20</v>
+      </c>
+      <c r="B108">
+        <v>-20</v>
+      </c>
+      <c r="C108">
         <v>0.5</v>
       </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88">
-        <v>20</v>
-      </c>
-      <c r="B88">
-        <v>-20</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89">
-        <v>20</v>
-      </c>
-      <c r="B89">
-        <v>-20</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90">
-        <v>20</v>
-      </c>
-      <c r="B90">
-        <v>-20</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>20</v>
+      </c>
+      <c r="B109">
+        <v>-20</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>20</v>
+      </c>
+      <c r="B110">
+        <v>-20</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>20</v>
+      </c>
+      <c r="B111">
+        <v>-20</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
         <v>0.2</v>
       </c>
-      <c r="F90">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91">
-        <v>20</v>
-      </c>
-      <c r="B91">
-        <v>-20</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
+      <c r="F111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>20</v>
+      </c>
+      <c r="B112">
+        <v>-20</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
         <v>0.3</v>
       </c>
-      <c r="F91">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92">
-        <v>20</v>
-      </c>
-      <c r="B92">
-        <v>-20</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
+      <c r="F112">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>20</v>
+      </c>
+      <c r="B113">
+        <v>-20</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
         <v>0.4</v>
       </c>
-      <c r="F92">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93">
-        <v>20</v>
-      </c>
-      <c r="B93">
-        <v>-20</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
+      <c r="F113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>20</v>
+      </c>
+      <c r="B114">
+        <v>-20</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0.45</v>
+      </c>
+      <c r="F114">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>20</v>
+      </c>
+      <c r="B115">
+        <v>-20</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
         <v>0.5</v>
       </c>
-      <c r="F93">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94">
-        <v>20</v>
-      </c>
-      <c r="B94">
-        <v>-20</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F94">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95">
-        <v>20</v>
-      </c>
-      <c r="B95">
-        <v>-20</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
+      <c r="F115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>20</v>
+      </c>
+      <c r="B116">
+        <v>-20</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>20</v>
+      </c>
+      <c r="B117">
+        <v>-20</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0.5</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>20</v>
+      </c>
+      <c r="B118">
+        <v>-20</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>20</v>
+      </c>
+      <c r="B119">
+        <v>-20</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
         <v>0.6</v>
       </c>
-      <c r="F95">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96">
-        <v>20</v>
-      </c>
-      <c r="B96">
-        <v>-20</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
+      <c r="F119">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>20</v>
+      </c>
+      <c r="B120">
+        <v>-20</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0.625</v>
+      </c>
+      <c r="F120">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>20</v>
+      </c>
+      <c r="B121">
+        <v>-20</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
         <v>0.65</v>
       </c>
-      <c r="F96">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97">
-        <v>20</v>
-      </c>
-      <c r="B97">
-        <v>-20</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0.7</v>
-      </c>
-      <c r="F97">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98">
-        <v>0</v>
-      </c>
-      <c r="B98">
-        <v>-20</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>2</v>
+      <c r="F121">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>-20</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
